--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/LRC线性责任表.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/LRC线性责任表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -425,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,11 +435,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,12 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,135 +769,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="9" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -927,7 +925,7 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2"/>
@@ -935,13 +933,13 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <v>2</v>
       </c>
       <c r="H7">
@@ -958,13 +956,13 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <v>2</v>
       </c>
       <c r="H8">
@@ -981,13 +979,13 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>1.2</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9">
@@ -1004,13 +1002,13 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>1.3</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>3</v>
       </c>
       <c r="H10">
@@ -1027,7 +1025,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -1035,13 +1033,13 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>2.1</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12">
@@ -1058,13 +1056,13 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <v>4</v>
       </c>
       <c r="H13">
@@ -1081,13 +1079,13 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>2.2999999999999998</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="4">
         <v>4</v>
       </c>
       <c r="H14">
@@ -1104,13 +1102,13 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>2.4</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H15">
@@ -1127,7 +1125,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>2.5</v>
       </c>
       <c r="B16" t="s">
@@ -1135,13 +1133,13 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="4">
         <v>2</v>
       </c>
       <c r="H17">
@@ -1158,13 +1156,13 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18">
@@ -1181,13 +1179,13 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H19">
@@ -1204,13 +1202,13 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H20">
@@ -1227,13 +1225,13 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H21">
@@ -1250,7 +1248,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>3</v>
       </c>
       <c r="B22" t="s">
@@ -1258,7 +1256,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>3.1</v>
       </c>
       <c r="B23" t="s">
@@ -1266,13 +1264,13 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="4">
         <v>2</v>
       </c>
       <c r="H24">
@@ -1289,13 +1287,13 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="4">
         <v>2</v>
       </c>
       <c r="H25">
@@ -1312,13 +1310,13 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H26">
@@ -1335,7 +1333,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>3.2</v>
       </c>
       <c r="B27" t="s">
@@ -1343,13 +1341,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="4">
         <v>4</v>
       </c>
       <c r="H28">
@@ -1366,13 +1364,13 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="4">
         <v>2</v>
       </c>
       <c r="H29">
@@ -1386,13 +1384,13 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="4">
         <v>4</v>
       </c>
       <c r="H30">
@@ -1409,7 +1407,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
@@ -1417,13 +1415,13 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>3.3</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="4">
         <v>1</v>
       </c>
       <c r="H32">
@@ -1440,13 +1438,13 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="4">
         <v>1</v>
       </c>
       <c r="H33">
@@ -1463,13 +1461,13 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="4">
         <v>1</v>
       </c>
       <c r="H34">
@@ -1486,13 +1484,13 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H35">
@@ -1509,13 +1507,13 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H36">
@@ -1532,13 +1530,13 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B37" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H37">
@@ -1555,13 +1553,13 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="4">
         <v>1</v>
       </c>
       <c r="H38">
@@ -1578,13 +1576,13 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H39">
@@ -1601,13 +1599,13 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="4">
         <v>2</v>
       </c>
       <c r="H40">
@@ -1624,13 +1622,13 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="4">
         <v>1</v>
       </c>
       <c r="H41">
@@ -1647,7 +1645,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>4</v>
       </c>
       <c r="B42" t="s">
@@ -1655,7 +1653,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>4.0999999999999996</v>
       </c>
       <c r="B43" t="s">
@@ -1663,7 +1661,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>4.2</v>
       </c>
       <c r="B44" t="s">
@@ -1671,7 +1669,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>4.3</v>
       </c>
       <c r="B45" t="s">
@@ -1679,7 +1677,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>4.4000000000000004</v>
       </c>
       <c r="B46" t="s">
@@ -1687,7 +1685,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>4.5</v>
       </c>
       <c r="B47" t="s">
@@ -1695,7 +1693,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>5</v>
       </c>
       <c r="B48" t="s">
@@ -1703,7 +1701,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>6</v>
       </c>
       <c r="B49" t="s">
@@ -1711,7 +1709,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>7</v>
       </c>
       <c r="B50" t="s">
@@ -1719,7 +1717,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>8</v>
       </c>
       <c r="B51" t="s">
@@ -1727,7 +1725,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>9</v>
       </c>
       <c r="B52" t="s">
@@ -1735,7 +1733,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>10</v>
       </c>
       <c r="B53" t="s">
